--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -673,42 +673,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="16.11328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="13.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.23046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.76953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="37.0625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.8125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-treatment-intent.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
